--- a/Perceptual_Only/Eye_Tracker/LookTime/1-sec/Tadpole_ET_summary_Perceptual_1-sec.xlsx
+++ b/Perceptual_Only/Eye_Tracker/LookTime/1-sec/Tadpole_ET_summary_Perceptual_1-sec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0-All" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5217" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5580" uniqueCount="112">
   <si>
     <t>-</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>per04</t>
+  </si>
+  <si>
+    <t>P001</t>
   </si>
 </sst>
 </file>
@@ -690,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4042,6 +4045,253 @@
       </c>
       <c r="AO29">
         <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>87</v>
+      </c>
+      <c r="R30" t="s">
+        <v>18</v>
+      </c>
+      <c r="S30" t="s">
+        <v>19</v>
+      </c>
+      <c r="T30" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W30" t="s">
+        <v>102</v>
+      </c>
+      <c r="X30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31">
+        <v>0.08</v>
+      </c>
+      <c r="C31">
+        <v>0.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1.9</v>
+      </c>
+      <c r="F31">
+        <v>0.8</v>
+      </c>
+      <c r="G31">
+        <v>0.43</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>0.45</v>
+      </c>
+      <c r="J31">
+        <v>1.95</v>
+      </c>
+      <c r="K31">
+        <v>0.17</v>
+      </c>
+      <c r="L31">
+        <v>0.83</v>
+      </c>
+      <c r="M31">
+        <v>5.37</v>
+      </c>
+      <c r="N31">
+        <v>1.62</v>
+      </c>
+      <c r="O31">
+        <v>0.23</v>
+      </c>
+      <c r="P31">
+        <v>1.34</v>
+      </c>
+      <c r="Q31">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R31">
+        <v>0.83</v>
+      </c>
+      <c r="S31">
+        <v>0.27</v>
+      </c>
+      <c r="T31">
+        <v>0.73</v>
+      </c>
+      <c r="U31">
+        <v>0.43</v>
+      </c>
+      <c r="V31">
+        <v>1.36</v>
+      </c>
+      <c r="W31">
+        <v>1.03</v>
+      </c>
+      <c r="X31">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Y31">
+        <v>1.44</v>
+      </c>
+      <c r="Z31">
+        <v>1.3</v>
+      </c>
+      <c r="AA31">
+        <v>0.6</v>
+      </c>
+      <c r="AB31">
+        <v>1.59</v>
+      </c>
+      <c r="AC31">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AD31">
+        <v>0.47</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>4.91</v>
+      </c>
+      <c r="AG31">
+        <v>2.6</v>
+      </c>
+      <c r="AH31">
+        <v>1.08</v>
+      </c>
+      <c r="AI31">
+        <v>0.99</v>
+      </c>
+      <c r="AJ31">
+        <v>1.31</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1.85</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AO31">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -4051,10 +4301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:AO30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7527,6 +7777,253 @@
         <v>0.34</v>
       </c>
       <c r="AO30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>87</v>
+      </c>
+      <c r="R31" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" t="s">
+        <v>101</v>
+      </c>
+      <c r="W31" t="s">
+        <v>102</v>
+      </c>
+      <c r="X31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0.03</v>
+      </c>
+      <c r="F32">
+        <v>0.24</v>
+      </c>
+      <c r="G32">
+        <v>0.37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.01</v>
+      </c>
+      <c r="K32">
+        <v>0.17</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0.19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.27</v>
+      </c>
+      <c r="Q32">
+        <v>0.02</v>
+      </c>
+      <c r="R32">
+        <v>0.36</v>
+      </c>
+      <c r="S32" t="s">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0.09</v>
+      </c>
+      <c r="U32" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0.01</v>
+      </c>
+      <c r="X32">
+        <v>0.62</v>
+      </c>
+      <c r="Y32">
+        <v>0.22</v>
+      </c>
+      <c r="Z32">
+        <v>0.22</v>
+      </c>
+      <c r="AA32">
+        <v>0.33</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0.53</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0.38</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0.12</v>
+      </c>
+      <c r="AO32" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7537,10 +8034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:AO30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11014,6 +11511,253 @@
       </c>
       <c r="AO30">
         <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>87</v>
+      </c>
+      <c r="R31" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" t="s">
+        <v>101</v>
+      </c>
+      <c r="W31" t="s">
+        <v>102</v>
+      </c>
+      <c r="X31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.02</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G32">
+        <v>0.06</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>0.45</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0.48</v>
+      </c>
+      <c r="S32">
+        <v>0.22</v>
+      </c>
+      <c r="T32">
+        <v>0.64</v>
+      </c>
+      <c r="U32">
+        <v>0.36</v>
+      </c>
+      <c r="V32">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W32">
+        <v>0.72</v>
+      </c>
+      <c r="X32">
+        <v>0.1</v>
+      </c>
+      <c r="Y32">
+        <v>0.9</v>
+      </c>
+      <c r="Z32">
+        <v>0.73</v>
+      </c>
+      <c r="AA32">
+        <v>0.27</v>
+      </c>
+      <c r="AB32">
+        <v>0.4</v>
+      </c>
+      <c r="AC32">
+        <v>0.6</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0.37</v>
+      </c>
+      <c r="AG32">
+        <v>0.63</v>
+      </c>
+      <c r="AH32">
+        <v>0.74</v>
+      </c>
+      <c r="AI32">
+        <v>0.26</v>
+      </c>
+      <c r="AJ32">
+        <v>0.02</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0.7</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0.8</v>
+      </c>
+      <c r="AO32">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -11023,10 +11767,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:AO30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14500,6 +15244,253 @@
       </c>
       <c r="AO30" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>87</v>
+      </c>
+      <c r="R31" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" t="s">
+        <v>101</v>
+      </c>
+      <c r="W31" t="s">
+        <v>102</v>
+      </c>
+      <c r="X31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32">
+        <v>0.08</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0.87</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.94</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0.31</v>
+      </c>
+      <c r="O32">
+        <v>0.23</v>
+      </c>
+      <c r="P32">
+        <v>0.87</v>
+      </c>
+      <c r="Q32">
+        <v>0.13</v>
+      </c>
+      <c r="R32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0.04</v>
+      </c>
+      <c r="T32" t="s">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V32">
+        <v>0.7</v>
+      </c>
+      <c r="W32">
+        <v>0.3</v>
+      </c>
+      <c r="X32">
+        <v>0.4</v>
+      </c>
+      <c r="Y32">
+        <v>0.33</v>
+      </c>
+      <c r="Z32">
+        <v>0.35</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0.77</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0.34</v>
+      </c>
+      <c r="AI32">
+        <v>0.36</v>
+      </c>
+      <c r="AJ32">
+        <v>0.32</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0.23</v>
+      </c>
+      <c r="AO32">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -14509,10 +15500,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:AO30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17985,6 +18976,253 @@
         <v>0.59</v>
       </c>
       <c r="AO30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>87</v>
+      </c>
+      <c r="R31" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" t="s">
+        <v>101</v>
+      </c>
+      <c r="W31" t="s">
+        <v>102</v>
+      </c>
+      <c r="X31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0.7</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.21</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0.38</v>
+      </c>
+      <c r="W32" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0.42</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0.97</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0.44</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="s">
         <v>0</v>
       </c>
     </row>
@@ -17995,10 +19233,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:AO30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21474,6 +22712,253 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>87</v>
+      </c>
+      <c r="R31" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" t="s">
+        <v>101</v>
+      </c>
+      <c r="W31" t="s">
+        <v>102</v>
+      </c>
+      <c r="X31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0.83</v>
+      </c>
+      <c r="M32">
+        <v>0.17</v>
+      </c>
+      <c r="N32">
+        <v>0.31</v>
+      </c>
+      <c r="O32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0.01</v>
+      </c>
+      <c r="AM32">
+        <v>0.99</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
